--- a/koboforms/Forecasts.xlsx
+++ b/koboforms/Forecasts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/deo/anticipatoryactiondecisions/koboforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dasdoresngueussiengamini/working/AA_projets/general/aadecisionoverviewFR/koboforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2518F2-EB30-1F4E-A589-A2A41D08D488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC2CA65-B911-0C4C-8185-39CE1AD45203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1780" windowWidth="28040" windowHeight="17440" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
+    <workbookView xWindow="2200" yWindow="1000" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{05574417-E28B-7A44-8D51-6FA488FA6DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>type</t>
   </si>
@@ -63,89 +63,92 @@
     <t>version</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>q4</t>
+  </si>
+  <si>
+    <t>q5</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>q0</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>q6</t>
+  </si>
+  <si>
+    <t>Votre adresse e‑mail</t>
+  </si>
+  <si>
+    <t>Quelle année présente la probabilité de sécheresse la plus élevée ?</t>
+  </si>
+  <si>
+    <t>Quelle année présente la deuxième probabilité la plus élevée de sécheresse ?</t>
+  </si>
+  <si>
+    <t>Si vous aviez le mandat d’agir 40 % du temps, quelles seraient les deux années pour lesquelles la prévision indiquerait d’agir ?</t>
+  </si>
+  <si>
+    <t>Ces années sont‑elles mises en jaune pour faciliter nos prochains points de discussion ?</t>
+  </si>
+  <si>
+    <t>Si nous devions choisir un niveau de prévision suffisamment élevé pour respecter le critère de 40 %, c’est‑à‑dire un seuil pour lequel deux années sont à ce niveau ou au‑dessus et toutes les autres en dessous, à quel niveau devrait‑il être fixé ?</t>
+  </si>
+  <si>
+    <t>Ce niveau de prévision est appelé le seuil de déclenchement pour avril. Si nous établissons une politique selon laquelle l’action est déclenchée lorsque la prévision atteint ou dépasse ce seuil, quel pourcentage du temps l’action serait‑elle déclenchée ?</t>
+  </si>
+  <si>
+    <t>La prévision prédit‑elle toujours correctement ce qui se produira réellement ?</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Forecasts FR</t>
+  </si>
+  <si>
+    <t>ForecastsFR</t>
+  </si>
+  <si>
     <t>v1</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>Your email</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>q4</t>
-  </si>
-  <si>
-    <t>q5</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>q0</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>Forecasts</t>
-  </si>
-  <si>
-    <t>Which year has the highest probability of drought?</t>
-  </si>
-  <si>
-    <t>Which year has the second highest probability of drought?</t>
-  </si>
-  <si>
-    <t>Are those years shaded yellow to make our next discussion points more convenient?</t>
-  </si>
-  <si>
-    <t>If we were to pick a forecast level that is strong enough to meet the 40% criteria, for which 2 years are at or above that level and the rest of the years are below that level, how high would it need to be?</t>
-  </si>
-  <si>
-    <t>That forecast level is called the trigger threshold for April. If we set a policy that action is triggered if the forecast is at or above that threshold, what percentage of the time do we trigger action?</t>
-  </si>
-  <si>
-    <t>If you had a mandate to act 40% of the time, which two years would the forecast say to act?</t>
-  </si>
-  <si>
-    <t>q6</t>
-  </si>
-  <si>
-    <t>Does the forecast always correctly predict what will actually happen?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +182,12 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -532,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994C7F9E-9867-6243-AAB9-77628DC2993D}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -563,24 +572,24 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -591,24 +600,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
@@ -616,41 +625,41 @@
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -658,13 +667,13 @@
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -686,14 +695,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -704,24 +713,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -731,15 +740,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DF2FC2-2B0D-0B42-899E-2C094C966549}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,19 +758,21 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>